--- a/Permutation_1_Dec012.xlsx
+++ b/Permutation_1_Dec012.xlsx
@@ -156,7 +156,7 @@
     <t>FitTestPeriod</t>
   </si>
   <si>
-    <t>3.5</t>
+    <t>4.5</t>
   </si>
   <si>
     <t>2.5</t>
